--- a/nriss-patch-1/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/nriss-patch-1/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/tddui-documentreference</t>
+    <t>https://interop.esante.gouv.fr/ig/cda/tddui/StructureDefinition/tddui-documentreference</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-03T14:18:24+00:00</t>
+    <t>2025-07-31T14:23:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-1/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/nriss-patch-1/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T14:23:22+00:00</t>
+    <t>2025-08-01T06:36:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
